--- a/test.xlsx
+++ b/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB07F70F-3AB8-4284-8A03-FB13B47E8F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542D28ED-1560-FD46-B247-B4BF7031DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2895" yWindow="1035" windowWidth="21600" windowHeight="11505" xr2:uid="{682725A0-97B1-424E-AB93-E31E42B1C05D}"/>
+    <workbookView xWindow="2900" yWindow="1040" windowWidth="21600" windowHeight="11500" xr2:uid="{682725A0-97B1-424E-AB93-E31E42B1C05D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
   <si>
     <t>あさい</t>
     <phoneticPr fontId="1"/>
@@ -47,12 +47,16 @@
     <t>げんき</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>あさいげんき</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,12 +416,12 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,17 +429,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5">
         <v>1</v>
       </c>
@@ -446,7 +453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>5</v>
       </c>
@@ -457,7 +464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="B7">
         <v>1</v>
       </c>
@@ -468,7 +475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="B8">
         <v>2</v>
       </c>
@@ -479,7 +486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="B9">
         <v>3</v>
       </c>
